--- a/data/outputs/management_elsevier/45.xlsx
+++ b/data/outputs/management_elsevier/45.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS59"/>
+  <dimension ref="A1:BU59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -935,6 +945,12 @@
           <t>2-s2.0-84949532479</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>932</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1140,6 +1156,12 @@
           <t>2-s2.0-84949528916</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>1244</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1357,6 +1379,12 @@
           <t>2-s2.0-84949495828</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>1976</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1566,6 +1594,12 @@
           <t>2-s2.0-84949515730</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>1081</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1779,6 +1813,12 @@
           <t>2-s2.0-84949525327</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>1132</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1979,6 +2019,12 @@
         <is>
           <t>2-s2.0-84949485400</t>
         </is>
+      </c>
+      <c r="BT7" t="n">
+        <v>472</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -2173,6 +2219,12 @@
           <t>2-s2.0-84949535910</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>191</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2378,6 +2430,12 @@
           <t>2-s2.0-84949537031</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>1410</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2583,6 +2641,12 @@
           <t>2-s2.0-84949531435</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>972</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2796,6 +2860,12 @@
           <t>2-s2.0-84949538292</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>2757</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3003,6 +3073,12 @@
           <t>2-s2.0-84949529868</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>992</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3208,6 +3284,12 @@
           <t>2-s2.0-84949530628</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>383</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3423,6 +3505,12 @@
           <t>2-s2.0-84949538529</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>497</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3636,6 +3724,12 @@
           <t>2-s2.0-84949532037</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>2387</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3853,6 +3947,12 @@
           <t>2-s2.0-84940752185</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>1004</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4058,6 +4158,12 @@
           <t>2-s2.0-84942010144</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>936</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4275,6 +4381,12 @@
           <t>2-s2.0-84942520216</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>699</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4488,6 +4600,12 @@
           <t>2-s2.0-84942326344</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>1166</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4709,6 +4827,12 @@
           <t>2-s2.0-84942321388</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>789</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4932,6 +5056,12 @@
           <t>2-s2.0-84942322259</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>2304</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5137,6 +5267,12 @@
           <t>2-s2.0-84942314509</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>1268</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5344,6 +5480,12 @@
           <t>2-s2.0-84942320547</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>1089</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5549,6 +5691,12 @@
           <t>2-s2.0-84946061947</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>562</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5754,6 +5902,12 @@
           <t>2-s2.0-84940666855</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>977</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5967,6 +6121,12 @@
           <t>2-s2.0-84940783666</t>
         </is>
       </c>
+      <c r="BT26" t="n">
+        <v>651</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6192,6 +6352,12 @@
           <t>2-s2.0-84933039168</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>4211</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6401,6 +6567,12 @@
           <t>2-s2.0-84937053637</t>
         </is>
       </c>
+      <c r="BT28" t="n">
+        <v>2051</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6610,6 +6782,12 @@
           <t>2-s2.0-84937197667</t>
         </is>
       </c>
+      <c r="BT29" t="n">
+        <v>1236</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6819,6 +6997,12 @@
           <t>2-s2.0-84938070339</t>
         </is>
       </c>
+      <c r="BT30" t="n">
+        <v>1298</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7024,6 +7208,12 @@
           <t>2-s2.0-84938096774</t>
         </is>
       </c>
+      <c r="BT31" t="n">
+        <v>2423</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7237,6 +7427,12 @@
           <t>2-s2.0-84938358146</t>
         </is>
       </c>
+      <c r="BT32" t="n">
+        <v>1255</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7442,6 +7638,12 @@
           <t>2-s2.0-84938803006</t>
         </is>
       </c>
+      <c r="BT33" t="n">
+        <v>683</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7651,6 +7853,12 @@
           <t>2-s2.0-84952323020</t>
         </is>
       </c>
+      <c r="BT34" t="n">
+        <v>564</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7860,6 +8068,12 @@
           <t>2-s2.0-84926071087</t>
         </is>
       </c>
+      <c r="BT35" t="n">
+        <v>843</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8067,6 +8281,12 @@
           <t>2-s2.0-84926032409</t>
         </is>
       </c>
+      <c r="BT36" t="n">
+        <v>1166</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8276,6 +8496,12 @@
           <t>2-s2.0-84927126296</t>
         </is>
       </c>
+      <c r="BT37" t="n">
+        <v>1465</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8476,6 +8702,12 @@
         <is>
           <t>2-s2.0-84927757616</t>
         </is>
+      </c>
+      <c r="BT38" t="n">
+        <v>923</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -8686,6 +8918,12 @@
           <t>2-s2.0-84937976353</t>
         </is>
       </c>
+      <c r="BT39" t="n">
+        <v>564</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8899,6 +9137,12 @@
           <t>2-s2.0-84937968506</t>
         </is>
       </c>
+      <c r="BT40" t="n">
+        <v>709</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9112,6 +9356,12 @@
           <t>2-s2.0-84937971810</t>
         </is>
       </c>
+      <c r="BT41" t="n">
+        <v>1314</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9325,6 +9575,12 @@
           <t>2-s2.0-84937972938</t>
         </is>
       </c>
+      <c r="BT42" t="n">
+        <v>874</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9534,6 +9790,12 @@
           <t>2-s2.0-84937969637</t>
         </is>
       </c>
+      <c r="BT43" t="n">
+        <v>1101</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9747,6 +10009,12 @@
           <t>2-s2.0-84937912441</t>
         </is>
       </c>
+      <c r="BT44" t="n">
+        <v>1151</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9958,6 +10226,12 @@
           <t>2-s2.0-84937967496</t>
         </is>
       </c>
+      <c r="BT45" t="n">
+        <v>1348</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10179,6 +10453,12 @@
           <t>2-s2.0-84928523448</t>
         </is>
       </c>
+      <c r="BT46" t="n">
+        <v>1117</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10400,6 +10680,12 @@
           <t>2-s2.0-84923176970</t>
         </is>
       </c>
+      <c r="BT47" t="n">
+        <v>658</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10613,6 +10899,12 @@
           <t>2-s2.0-84924607286</t>
         </is>
       </c>
+      <c r="BT48" t="n">
+        <v>1191</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10818,6 +11110,12 @@
           <t>2-s2.0-84988269598</t>
         </is>
       </c>
+      <c r="BT49" t="n">
+        <v>525</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11035,6 +11333,12 @@
           <t>2-s2.0-84939934618</t>
         </is>
       </c>
+      <c r="BT50" t="n">
+        <v>1415</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11240,6 +11544,12 @@
           <t>2-s2.0-84939963272</t>
         </is>
       </c>
+      <c r="BT51" t="n">
+        <v>1651</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11465,6 +11775,12 @@
           <t>2-s2.0-84939975932</t>
         </is>
       </c>
+      <c r="BT52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11674,6 +11990,12 @@
           <t>2-s2.0-84939944897</t>
         </is>
       </c>
+      <c r="BT53" t="n">
+        <v>1365</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11879,6 +12201,12 @@
       <c r="BQ54" t="inlineStr"/>
       <c r="BR54" t="inlineStr"/>
       <c r="BS54" t="inlineStr"/>
+      <c r="BT54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12084,6 +12412,12 @@
           <t>2-s2.0-84916888831</t>
         </is>
       </c>
+      <c r="BT55" t="n">
+        <v>1242</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12289,6 +12623,12 @@
           <t>2-s2.0-84920915377</t>
         </is>
       </c>
+      <c r="BT56" t="n">
+        <v>646</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12494,6 +12834,12 @@
           <t>2-s2.0-84922353559</t>
         </is>
       </c>
+      <c r="BT57" t="n">
+        <v>515</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12707,6 +13053,12 @@
           <t>2-s2.0-84917709245</t>
         </is>
       </c>
+      <c r="BT58" t="n">
+        <v>458</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12926,6 +13278,12 @@
           <t>2-s2.0-84920492889</t>
         </is>
       </c>
+      <c r="BT59" t="n">
+        <v>2301</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
